--- a/tareas.xlsx
+++ b/tareas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProtoQSAR\PROJECTS_AND_CLIENTS\IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FAF017-B153-43EA-A856-06D5412E5A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19732B06-BCA0-476E-8227-DD735F9C7754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>Structural Clustering</t>
   </si>
@@ -46,18 +47,12 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>hepatic metabolism</t>
-  </si>
-  <si>
     <t>CACO2</t>
   </si>
   <si>
     <t>In vitro CACO2  hepatic metabolism, and CYP inhibition</t>
   </si>
   <si>
-    <t>CYP inhibition</t>
-  </si>
-  <si>
     <t>Human liver microsome (HLM) stability</t>
   </si>
   <si>
@@ -76,77 +71,263 @@
     <t>Bioavailability 30%</t>
   </si>
   <si>
+    <t>Human Intestinal Absorption</t>
+  </si>
+  <si>
+    <t>P-glycoprotein inhibitor</t>
+  </si>
+  <si>
+    <t>P-glycoprotein substrate</t>
+  </si>
+  <si>
+    <t>Skin permeability</t>
+  </si>
+  <si>
+    <t>Blood-brain barrier penetration</t>
+  </si>
+  <si>
+    <t>Plasma protein binding</t>
+  </si>
+  <si>
+    <t>Volume of distribution</t>
+  </si>
+  <si>
+    <t>Cav 1.2</t>
+  </si>
+  <si>
+    <t>Nav 1.5</t>
+  </si>
+  <si>
+    <t>hERG,</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>DATOS1</t>
+  </si>
+  <si>
+    <t>DATOS2</t>
+  </si>
+  <si>
+    <t>DATOS3</t>
+  </si>
+  <si>
+    <t>DATOS4</t>
+  </si>
+  <si>
+    <t>DATOS5</t>
+  </si>
+  <si>
+    <t>https://biosig.lab.uq.edu.au/deeppk/data</t>
+  </si>
+  <si>
+    <t>https://vnnadmet.bhsai.org/vnnadmet/availablemodels.xhtml</t>
+  </si>
+  <si>
+    <t>DATABASE LAURI</t>
+  </si>
+  <si>
+    <t>ONTOX</t>
+  </si>
+  <si>
+    <t>Simón</t>
+  </si>
+  <si>
+    <t>Quiero ver propuesta formal antes del pdf</t>
+  </si>
+  <si>
+    <t>Estos son los que pedían ellos inicialmente:</t>
+  </si>
+  <si>
+    <t>clustering estructural</t>
+  </si>
+  <si>
+    <t>ADME in vitro (caco, metabolismo hepático, CYP)</t>
+  </si>
+  <si>
+    <t>ADME in vivo (farmacocinetica)</t>
+  </si>
+  <si>
+    <t>Tox ( por ejemplo MTD?)</t>
+  </si>
+  <si>
+    <t>Actividad hERG, Nav 1.5 y Cav 1.2</t>
+  </si>
+  <si>
+    <t>Esta era mi propuesta antes de que enviáramos la propuesta, en la que finalmente no incluimos el desglose de los modelos porque había cierta urgencia:</t>
+  </si>
+  <si>
+    <r>
+      <t>"Clustering estructural": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>¿cómo haríamos esto?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Adme in vitro (caco, metabolismo hepático, CYP)". Estos modelos, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>¿alguno más o alguno no?</t>
+    </r>
+  </si>
+  <si>
     <t>Caco-2 permeability</t>
   </si>
   <si>
-    <t>Human Intestinal Absorption</t>
-  </si>
-  <si>
-    <t>P-glycoprotein inhibitor</t>
-  </si>
-  <si>
-    <t>P-glycoprotein substrate</t>
-  </si>
-  <si>
-    <t>Skin permeability</t>
-  </si>
-  <si>
-    <t>Blood-brain barrier penetration</t>
-  </si>
-  <si>
-    <t>Plasma protein binding</t>
-  </si>
-  <si>
-    <t>Volume of distribution</t>
-  </si>
-  <si>
-    <t>Cav 1.2</t>
-  </si>
-  <si>
-    <t>Nav 1.5</t>
-  </si>
-  <si>
-    <t>hERG,</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>DATOS1</t>
-  </si>
-  <si>
-    <t>DATOS2</t>
-  </si>
-  <si>
-    <t>DATOS3</t>
-  </si>
-  <si>
-    <t>DATOS4</t>
-  </si>
-  <si>
-    <t>DATOS5</t>
-  </si>
-  <si>
-    <t>https://biosig.lab.uq.edu.au/deeppk/data</t>
-  </si>
-  <si>
-    <t>https://vnnadmet.bhsai.org/vnnadmet/availablemodels.xhtml</t>
-  </si>
-  <si>
-    <t>DATABASE LAURI</t>
-  </si>
-  <si>
-    <t>ONTOX</t>
+    <t>CYP450 1A2 inhibitor</t>
+  </si>
+  <si>
+    <t>CYP450 3A4 inhibitor</t>
+  </si>
+  <si>
+    <t>CYP450 2C9 inhibitor</t>
+  </si>
+  <si>
+    <t>CYP450 2C19 inhibitor</t>
+  </si>
+  <si>
+    <t>CYP450 2D6 inhibitor</t>
+  </si>
+  <si>
+    <t>CYP450 1A2 substrate</t>
+  </si>
+  <si>
+    <t>CYP450 3A4 substrate</t>
+  </si>
+  <si>
+    <t>CYP450 2C19 substrate</t>
+  </si>
+  <si>
+    <t>CYP450 2D6 substrate</t>
+  </si>
+  <si>
+    <r>
+      <t>"ADME in vivo": Estos modelos, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>¿alguno más o alguno no?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Tox (por ejemplo MTD?)". Los modelos de ProtoTOX, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>¿no?</t>
+    </r>
+  </si>
+  <si>
+    <t>"Actividad hERG, Nav 1.5 y Cav 1.2". ¿Tenemos algo?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>CYP3a4-substrate</t>
+  </si>
+  <si>
+    <t>CYP2c9-subs</t>
+  </si>
+  <si>
+    <t>CYP2c19-subs</t>
+  </si>
+  <si>
+    <t>CYP2c8-sub</t>
+  </si>
+  <si>
+    <t>CYP1a2-sub</t>
+  </si>
+  <si>
+    <t>CYP2d6-subs</t>
+  </si>
+  <si>
+    <t>CYP3a4-inh</t>
+  </si>
+  <si>
+    <t>CYP2c9-inh</t>
+  </si>
+  <si>
+    <t>CYP2c19-inh</t>
+  </si>
+  <si>
+    <t>CYP2c8-inh</t>
+  </si>
+  <si>
+    <t>CYP1a2-inh</t>
+  </si>
+  <si>
+    <t>CYP2d6-inh</t>
+  </si>
+  <si>
+    <t>yes - por implementar</t>
+  </si>
+  <si>
+    <t>eva</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>Paralelización</t>
+  </si>
+  <si>
+    <t>deepka - enrique</t>
+  </si>
+  <si>
+    <t>Lauri/Eva</t>
+  </si>
+  <si>
+    <t>Carmenchu</t>
+  </si>
+  <si>
+    <t>jl-falta hiperparámetros -Enrique</t>
+  </si>
+  <si>
+    <t>enrique</t>
+  </si>
+  <si>
+    <t>lauri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +335,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,11 +375,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,179 +668,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>24</v>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -641,10 +1004,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113E713C-CF38-42DA-80CD-67D52C1AD235}">
+  <dimension ref="A3:A43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0F115D-A8CD-403E-9340-DF5F33175519}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -652,22 +1226,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
